--- a/covasim_webapp/tmp_excels/Population_Blagoveshchensk.xlsx
+++ b/covasim_webapp/tmp_excels/Population_Blagoveshchensk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozlov_ie\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504CB292-1512-4F29-A9B2-FE22C67329F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C69B92-F4FF-4A5F-8A27-05B1489BACAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="85">
   <si>
     <t>Households</t>
   </si>
@@ -289,7 +289,10 @@
     <t xml:space="preserve">Workplace contact matrix </t>
   </si>
   <si>
-    <t>Blagoveshchensk</t>
+    <t>10_20</t>
+  </si>
+  <si>
+    <t>BB</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,14 +444,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -471,12 +468,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -507,25 +530,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -744,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603618E3-0FA2-433D-A780-823BE2180729}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -758,8 +778,8 @@
       <c r="A1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>83</v>
+      <c r="B1" s="26" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -783,7 +803,7 @@
   <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -821,8 +841,8 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20">
-        <v>4.5690313978634496E-2</v>
+      <c r="B4" s="21">
+        <v>11240</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -833,8 +853,8 @@
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20">
-        <v>5.2730849904879598E-2</v>
+      <c r="B5" s="21">
+        <v>12972</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -845,8 +865,8 @@
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20">
-        <v>5.3734898619534642E-2</v>
+      <c r="B6" s="21">
+        <v>13219</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -865,8 +885,8 @@
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20">
-        <v>6.769402123542706E-2</v>
+      <c r="B7" s="21">
+        <v>16653</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -885,8 +905,8 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20">
-        <v>9.1222093949691871E-2</v>
+      <c r="B8" s="21">
+        <v>22441</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -905,8 +925,8 @@
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20">
-        <v>6.8958228321490705E-2</v>
+      <c r="B9" s="21">
+        <v>16964</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -925,8 +945,8 @@
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20">
-        <v>8.949447976455667E-2</v>
+      <c r="B10" s="21">
+        <v>22016</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -945,8 +965,8 @@
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20">
-        <v>9.8457748654493429E-2</v>
+      <c r="B11" s="21">
+        <v>24221</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -965,8 +985,8 @@
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="20">
-        <v>9.0713972130534462E-2</v>
+      <c r="B12" s="21">
+        <v>22316</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -985,56 +1005,56 @@
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="20">
-        <v>6.9941952163379451E-2</v>
+      <c r="B13" s="21">
+        <v>17206</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.75">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20">
-        <v>5.7812068096453714E-2</v>
+      <c r="B14" s="21">
+        <v>14222</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12.75">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="20">
-        <v>4.5926082502723529E-2</v>
+      <c r="B15" s="21">
+        <v>11298</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.75">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="20">
-        <v>4.8405716980211705E-2</v>
+      <c r="B16" s="21">
+        <v>11908</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="12.75">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20">
-        <v>4.4084649030097074E-2</v>
+      <c r="B17" s="21">
+        <v>10845</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="12.75">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="20">
-        <v>3.9576592250532512E-2</v>
+      <c r="B18" s="21">
+        <v>9736</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="12.75">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="20">
-        <v>3.5556332417359067E-2</v>
+      <c r="B19" s="21">
+        <v>8747</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="12.75">
@@ -1588,8 +1608,8 @@
       <c r="A34" s="10">
         <v>1</v>
       </c>
-      <c r="B34" s="21">
-        <v>0.4427288451567194</v>
+      <c r="B34" s="25">
+        <v>111855</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1620,8 +1640,8 @@
       <c r="A35" s="10">
         <v>2</v>
       </c>
-      <c r="B35" s="21">
-        <v>0.26196818511056841</v>
+      <c r="B35" s="25">
+        <v>66186</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1652,8 +1672,8 @@
       <c r="A36" s="10">
         <v>3</v>
       </c>
-      <c r="B36" s="21">
-        <v>0.16098223226689992</v>
+      <c r="B36" s="25">
+        <v>40672</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1684,8 +1704,8 @@
       <c r="A37" s="10">
         <v>4</v>
       </c>
-      <c r="B37" s="21">
-        <v>9.6632086412374474E-2</v>
+      <c r="B37" s="25">
+        <v>24414</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1716,8 +1736,8 @@
       <c r="A38" s="10">
         <v>5</v>
       </c>
-      <c r="B38" s="21">
-        <v>2.7742045288127005E-2</v>
+      <c r="B38" s="25">
+        <v>7009</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1748,8 +1768,8 @@
       <c r="A39" s="10">
         <v>6</v>
       </c>
-      <c r="B39" s="23">
-        <v>6.9626240357175363E-3</v>
+      <c r="B39" s="20">
+        <v>1759</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1771,8 +1791,8 @@
       <c r="A40" s="10">
         <v>7</v>
       </c>
-      <c r="B40" s="24">
-        <v>2.9839817295932301E-3</v>
+      <c r="B40" s="21">
+        <v>754</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2706,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2202B34E-A3F8-4254-903B-720D9E1A5438}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2728,114 +2748,122 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>55</v>
+      <c r="A3" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B3" s="25">
-        <v>0.12612612612612614</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="19">
-        <v>9.45945945945946E-2</v>
+        <v>55</v>
+      </c>
+      <c r="B4" s="25">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.51351351351351349</v>
+        <v>53</v>
+      </c>
+      <c r="B5" s="25">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.14864864864864866</v>
+        <v>54</v>
+      </c>
+      <c r="B6" s="25">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="B7" s="25">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="19">
+        <v>57</v>
+      </c>
+      <c r="B8" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="19">
+        <v>58</v>
+      </c>
+      <c r="B9" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="19">
+        <v>59</v>
+      </c>
+      <c r="B10" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="19">
+        <v>60</v>
+      </c>
+      <c r="B11" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="19">
+        <v>61</v>
+      </c>
+      <c r="B12" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="19">
+        <v>62</v>
+      </c>
+      <c r="B13" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="19">
+        <v>63</v>
+      </c>
+      <c r="B14" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="19">
+        <v>64</v>
+      </c>
+      <c r="B15" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B17" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +2880,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B3" sqref="B3:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2874,47 +2902,47 @@
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="22">
-        <v>1.3513513513513514E-2</v>
+      <c r="B3" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="22">
-        <v>1.3513513513513514E-2</v>
+      <c r="B4" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75">
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="22">
-        <v>4.0540540540540543E-2</v>
+      <c r="B5" s="25">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="22">
-        <v>1.3513513513513514E-2</v>
+      <c r="B6" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75">
       <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="22">
-        <v>1.3513513513513514E-2</v>
+      <c r="B7" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2922,55 +2950,55 @@
       <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="22">
-        <v>1.3513513513513514E-2</v>
+      <c r="B9" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="22">
-        <v>4.0540540540540543E-2</v>
+      <c r="B10" s="25">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75">
       <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="22">
-        <v>8.1081081081081086E-2</v>
+      <c r="B11" s="25">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75">
       <c r="A12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="22">
-        <v>8.1081081081081086E-2</v>
+      <c r="B12" s="25">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75">
       <c r="A13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="22">
-        <v>2.7027027027027029E-2</v>
+      <c r="B13" s="25">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75">
       <c r="A14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="22">
-        <v>1.3513513513513514E-2</v>
+      <c r="B14" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75">
       <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2978,7 +3006,7 @@
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3089,7 +3117,7 @@
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3097,7 +3125,7 @@
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3105,7 +3133,7 @@
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3113,7 +3141,7 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3121,7 +3149,7 @@
       <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3129,7 +3157,7 @@
       <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3137,7 +3165,7 @@
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3145,7 +3173,7 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3153,7 +3181,7 @@
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3161,7 +3189,7 @@
       <c r="A12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3169,7 +3197,7 @@
       <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3177,15 +3205,15 @@
       <c r="A14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="22">
-        <v>1.3513513513513514E-2</v>
+      <c r="B14" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3193,8 +3221,8 @@
       <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="22">
-        <v>4.0540540540540543E-2</v>
+      <c r="B16" s="25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3206,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61A9896-D323-45CD-B1DF-6C5EC36549EC}">
   <dimension ref="A1:Q256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -4037,79 +4065,79 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="26"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="26"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
     </row>
     <row r="106" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28" t="s">
+      <c r="A106" s="24"/>
+      <c r="B106" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="28" t="s">
+      <c r="E106" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="28" t="s">
+      <c r="F106" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="28" t="s">
+      <c r="G106" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H106" s="28" t="s">
+      <c r="H106" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="28" t="s">
+      <c r="I106" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J106" s="28" t="s">
+      <c r="J106" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K106" s="28" t="s">
+      <c r="K106" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L106" s="28" t="s">
+      <c r="L106" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M106" s="28" t="s">
+      <c r="M106" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N106" s="28" t="s">
+      <c r="N106" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O106" s="28" t="s">
+      <c r="O106" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="P106" s="28" t="s">
+      <c r="P106" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q106" s="28" t="s">
+      <c r="Q106" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B107" s="18">
@@ -4162,7 +4190,7 @@
       </c>
     </row>
     <row r="108" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="18">
@@ -4215,7 +4243,7 @@
       </c>
     </row>
     <row r="109" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B109" s="18">
@@ -4268,7 +4296,7 @@
       </c>
     </row>
     <row r="110" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A110" s="28" t="s">
+      <c r="A110" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B110" s="18">
@@ -4321,7 +4349,7 @@
       </c>
     </row>
     <row r="111" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A111" s="28" t="s">
+      <c r="A111" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B111" s="18">
@@ -4374,7 +4402,7 @@
       </c>
     </row>
     <row r="112" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B112" s="18">
@@ -4427,7 +4455,7 @@
       </c>
     </row>
     <row r="113" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="18">
@@ -4480,7 +4508,7 @@
       </c>
     </row>
     <row r="114" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="18">
@@ -4533,7 +4561,7 @@
       </c>
     </row>
     <row r="115" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="18">
@@ -4586,7 +4614,7 @@
       </c>
     </row>
     <row r="116" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B116" s="18">
@@ -4639,7 +4667,7 @@
       </c>
     </row>
     <row r="117" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B117" s="18">
@@ -4692,7 +4720,7 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B118" s="18">
@@ -4745,7 +4773,7 @@
       </c>
     </row>
     <row r="119" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="18">
@@ -4798,7 +4826,7 @@
       </c>
     </row>
     <row r="120" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B120" s="18">
@@ -4851,7 +4879,7 @@
       </c>
     </row>
     <row r="121" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B121" s="18">
@@ -4904,7 +4932,7 @@
       </c>
     </row>
     <row r="122" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B122" s="18">
@@ -5026,7 +5054,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="19">
-        <v>25</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5899,7 +5927,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5921,72 +5949,72 @@
       <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="20">
-        <v>0.57525005815305885</v>
+      <c r="B3" s="27">
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="12.75">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20">
-        <v>0.15515236101418933</v>
+      <c r="B4" s="27">
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="12.75">
       <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="20">
-        <v>0.1021167713421726</v>
+      <c r="B5" s="27">
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="12.75">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="20">
-        <v>9.0718771807397069E-2</v>
+      <c r="B6" s="27">
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="12.75">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="20">
-        <v>4.5824610374505699E-2</v>
+      <c r="B7" s="27">
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="12.75">
       <c r="A8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="20">
-        <v>1.7911142126075832E-2</v>
+      <c r="B8" s="27">
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="12.75">
       <c r="A9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="20">
-        <v>7.4435915329146311E-3</v>
+      <c r="B9" s="27">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="12.75">
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="20">
-        <v>3.9544080018608981E-3</v>
+      <c r="B10" s="27">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="12.75">
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="20">
-        <v>1.6282856478250756E-3</v>
+      <c r="B11" s="27">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
@@ -6903,7 +6931,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
